--- a/MedicalLink/Templates/So_XetNghiem_KhiMau.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_KhiMau.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AM$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AM$14</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
-  </si>
-  <si>
     <t>Họ tên người bệnh</t>
   </si>
   <si>
@@ -285,6 +279,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].KETQUA_PO2</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -540,30 +540,30 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,6 +581,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,478 +897,476 @@
     <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:39" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="J1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+    </row>
+    <row r="2" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="J2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+    </row>
+    <row r="6" spans="1:39" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM6" s="28" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+    </row>
+    <row r="8" spans="1:39" s="8" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="J2" s="29" t="s">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="22">
+        <v>9</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
+      <c r="L8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
     </row>
-    <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
+    <row r="9" spans="1:39" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="V9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ9" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM9" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="32" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-    </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM7" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-    </row>
-    <row r="9" spans="1:39" s="8" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>6</v>
-      </c>
-      <c r="G9" s="7">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="22">
-        <v>9</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="V9" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="W9" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="X9" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z9" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA9" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB9" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC9" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD9" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE9" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF9" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG9" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH9" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI9" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ9" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK9" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-    </row>
-    <row r="10" spans="1:39" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="U10" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="W10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="X10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC10" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE10" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF10" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG10" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH10" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI10" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM10" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL13" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM13" s="27"/>
+      <c r="AM12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="J6:AK7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J1:Z1"/>
+    <mergeCell ref="J2:Z2"/>
+    <mergeCell ref="J3:Z3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J2:Z2"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="J7:AK8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_XetNghiem_KhiMau.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_KhiMau.xlsx
@@ -128,9 +128,6 @@
     <t>a/AO2</t>
   </si>
   <si>
-    <t>HCO3-st</t>
-  </si>
-  <si>
     <t>ctCO2 (B)</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>BB</t>
   </si>
   <si>
-    <t>BEefc</t>
-  </si>
-  <si>
     <t>BE</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>tHb</t>
   </si>
   <si>
-    <t>CL-</t>
-  </si>
-  <si>
     <t>Ca2++</t>
   </si>
   <si>
@@ -285,6 +276,15 @@
   </si>
   <si>
     <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>HCO3 - st</t>
+  </si>
+  <si>
+    <t>BE (ecf)</t>
+  </si>
+  <si>
+    <t>Cl-</t>
   </si>
 </sst>
 </file>
@@ -543,12 +543,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -561,28 +579,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,32 +898,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="J1" s="30" t="s">
+      <c r="A1" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="J1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
       <c r="AA1" s="19"/>
       <c r="AB1" s="19"/>
       <c r="AC1" s="19"/>
@@ -939,32 +939,32 @@
       <c r="AM1" s="11"/>
     </row>
     <row r="2" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="J2" s="31" t="s">
+      <c r="A2" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="J2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20"/>
       <c r="AC2" s="20"/>
@@ -980,133 +980,133 @@
       <c r="AM2" s="12"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
     </row>
     <row r="6" spans="1:39" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="28" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AM6" s="28" t="s">
+      <c r="AM6" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:39" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
     </row>
     <row r="8" spans="1:39" s="8" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1149,76 +1149,76 @@
         <v>32</v>
       </c>
       <c r="N8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="P8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="Q8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="R8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="T8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="U8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="V8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="W8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="X8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="26" t="s">
+      <c r="Y8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="X8" s="26" t="s">
+      <c r="Z8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Y8" s="26" t="s">
+      <c r="AA8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Z8" s="26" t="s">
+      <c r="AB8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AC8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="26" t="s">
+      <c r="AD8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AF8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="26" t="s">
+      <c r="AG8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="26" t="s">
+      <c r="AH8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AF8" s="26" t="s">
+      <c r="AI8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AG8" s="26" t="s">
+      <c r="AJ8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AH8" s="26" t="s">
+      <c r="AK8" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="AI8" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ8" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK8" s="26" t="s">
-        <v>56</v>
       </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
@@ -1252,85 +1252,85 @@
         <v>21</v>
       </c>
       <c r="J9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="N9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="O9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="P9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="Q9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="R9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="S9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="T9" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="U9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="V9" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="W9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="X9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="Y9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="W9" s="23" t="s">
+      <c r="Z9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="X9" s="23" t="s">
+      <c r="AA9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="Y9" s="23" t="s">
+      <c r="AB9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="Z9" s="23" t="s">
+      <c r="AC9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AA9" s="23" t="s">
+      <c r="AD9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AB9" s="23" t="s">
+      <c r="AE9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" s="23" t="s">
+      <c r="AF9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AD9" s="23" t="s">
+      <c r="AG9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="AE9" s="23" t="s">
+      <c r="AH9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AI9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AG9" s="23" t="s">
+      <c r="AJ9" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="AH9" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ9" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="AK9" s="23" t="s">
         <v>27</v>
@@ -1343,13 +1343,22 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL12" s="33" t="s">
+      <c r="AL12" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AM12" s="33"/>
+      <c r="AM12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J1:Z1"/>
+    <mergeCell ref="J2:Z2"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="AL6:AL7"/>
     <mergeCell ref="AL12:AM12"/>
     <mergeCell ref="AM6:AM7"/>
@@ -1358,15 +1367,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J1:Z1"/>
-    <mergeCell ref="J2:Z2"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_XetNghiem_KhiMau.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_KhiMau.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AM$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AM$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>STT</t>
   </si>
@@ -107,9 +107,6 @@
     <t>&amp;=[DATA1].NGUOIGUI</t>
   </si>
   <si>
-    <t>&amp;=[DATA].DEPARTMENTGROUPNAME</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].KETQUA_PH</t>
   </si>
   <si>
@@ -285,6 +282,174 @@
   </si>
   <si>
     <t>Cl-</t>
+  </si>
+  <si>
+    <t>U2571-4405</t>
+  </si>
+  <si>
+    <t>U2570-4349</t>
+  </si>
+  <si>
+    <t>U2569-4333</t>
+  </si>
+  <si>
+    <t>U2574-4454</t>
+  </si>
+  <si>
+    <t>U2572-4422</t>
+  </si>
+  <si>
+    <t>U2573-4443</t>
+  </si>
+  <si>
+    <t>U2559-3945</t>
+  </si>
+  <si>
+    <t>U2560-4122</t>
+  </si>
+  <si>
+    <t>U2564-4221</t>
+  </si>
+  <si>
+    <t>U2565-4242</t>
+  </si>
+  <si>
+    <t>U2566-4259</t>
+  </si>
+  <si>
+    <t>U2561-4135</t>
+  </si>
+  <si>
+    <t>U2562-4151</t>
+  </si>
+  <si>
+    <t>U8688-3745</t>
+  </si>
+  <si>
+    <t>U8687-3042</t>
+  </si>
+  <si>
+    <t>U8689-3825</t>
+  </si>
+  <si>
+    <t>U2567-4306</t>
+  </si>
+  <si>
+    <t>U8690-3845</t>
+  </si>
+  <si>
+    <t>U8700-0406</t>
+  </si>
+  <si>
+    <t>U8699-0317</t>
+  </si>
+  <si>
+    <t>U8701-0516</t>
+  </si>
+  <si>
+    <t>U8706-3358</t>
+  </si>
+  <si>
+    <t>U8702-0625</t>
+  </si>
+  <si>
+    <t>U8707-3549</t>
+  </si>
+  <si>
+    <t>U8703-0722</t>
+  </si>
+  <si>
+    <t>U8704-0732</t>
+  </si>
+  <si>
+    <t>U8705-0736</t>
+  </si>
+  <si>
+    <t>U8710-5118</t>
+  </si>
+  <si>
+    <t>KETQUA_FIO2</t>
+  </si>
+  <si>
+    <t>KETQUA_PTEM</t>
+  </si>
+  <si>
+    <t>KETQUA_AG</t>
+  </si>
+  <si>
+    <t>KETQUA_AO2</t>
+  </si>
+  <si>
+    <t>KETQUA_HCO</t>
+  </si>
+  <si>
+    <t>KETQUA_CTC_B</t>
+  </si>
+  <si>
+    <t>KETQUA_CTO2</t>
+  </si>
+  <si>
+    <t>KETQUA_BEE</t>
+  </si>
+  <si>
+    <t>KETQUA_BB</t>
+  </si>
+  <si>
+    <t>KETQUA_BE</t>
+  </si>
+  <si>
+    <t>KETQUA_CTC_P</t>
+  </si>
+  <si>
+    <t>KETQUA_CHC</t>
+  </si>
+  <si>
+    <t>KETQUA_BARO</t>
+  </si>
+  <si>
+    <t>KETQUA_BILI</t>
+  </si>
+  <si>
+    <t>KETQUA_HHB</t>
+  </si>
+  <si>
+    <t>KETQUA_MET</t>
+  </si>
+  <si>
+    <t>KETQUA_COH</t>
+  </si>
+  <si>
+    <t>KETQUA_O2H</t>
+  </si>
+  <si>
+    <t>KETQUA_SO2</t>
+  </si>
+  <si>
+    <t>KETQUA_THB</t>
+  </si>
+  <si>
+    <t>KETQUA_CL</t>
+  </si>
+  <si>
+    <t>KETQUA_CA2</t>
+  </si>
+  <si>
+    <t>KETQUA_K</t>
+  </si>
+  <si>
+    <t>KETQUA_NA</t>
+  </si>
+  <si>
+    <t>KETQUA_PH</t>
+  </si>
+  <si>
+    <t>KETQUA_PO2</t>
+  </si>
+  <si>
+    <t>KETQUA_PCO</t>
+  </si>
+  <si>
+    <t>KETQUA_HCT</t>
   </si>
 </sst>
 </file>
@@ -295,7 +460,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +503,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -543,9 +720,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,21 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,32 +1084,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="J1" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="A1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="J1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
       <c r="AA1" s="19"/>
       <c r="AB1" s="19"/>
       <c r="AC1" s="19"/>
@@ -939,32 +1125,32 @@
       <c r="AM1" s="11"/>
     </row>
     <row r="2" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="J2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
+      <c r="A2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="J2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20"/>
       <c r="AC2" s="20"/>
@@ -979,134 +1165,132 @@
       <c r="AL2" s="12"/>
       <c r="AM2" s="12"/>
     </row>
-    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
+    <row r="3" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
     </row>
     <row r="6" spans="1:39" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="27" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AM6" s="27" t="s">
+      <c r="AM6" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:39" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
     </row>
     <row r="8" spans="1:39" s="8" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1137,219 +1321,443 @@
         <v>9</v>
       </c>
       <c r="J8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="L8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="M8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="N8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="P8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="26" t="s">
+      <c r="S8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="T8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="S8" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA8" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB8" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AE8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AD8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE8" s="26" t="s">
+      <c r="AF8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AF8" s="26" t="s">
+      <c r="AG8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="AG8" s="26" t="s">
+      <c r="AH8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AH8" s="26" t="s">
+      <c r="AI8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AI8" s="26" t="s">
+      <c r="AJ8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AJ8" s="26" t="s">
+      <c r="AK8" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="AK8" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
     </row>
-    <row r="9" spans="1:39" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:39" s="8" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8</v>
+      </c>
+      <c r="I9" s="22">
+        <v>9</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="U9" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="V9" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="W9" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="X9" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z9" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA9" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB9" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC9" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD9" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE9" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF9" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG9" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH9" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI9" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ9" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK9" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="8" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB10" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC10" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF10" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG10" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH10" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ10" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK10" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+    </row>
+    <row r="11" spans="1:39" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="L11" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="M11" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="N11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="P11" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="Q11" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="R11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="S11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="T11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="U11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="V11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="W11" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="23" t="s">
+      <c r="X11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="X9" s="23" t="s">
+      <c r="Y11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" s="23" t="s">
+      <c r="Z11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="Z9" s="23" t="s">
+      <c r="AA11" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="23" t="s">
+      <c r="AB11" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AB9" s="23" t="s">
+      <c r="AC11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AC9" s="23" t="s">
+      <c r="AD11" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" s="23" t="s">
+      <c r="AE11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AE9" s="23" t="s">
+      <c r="AF11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AG11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="23" t="s">
+      <c r="AH11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="AH9" s="23" t="s">
+      <c r="AI11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="AI9" s="23" t="s">
+      <c r="AJ11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AJ9" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL9" s="13" t="s">
+      <c r="AK11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AM9" s="13" t="s">
+      <c r="AM11" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AL12" s="28" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AM12" s="28"/>
+      <c r="AM14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="J6:AK7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
@@ -1359,14 +1767,6 @@
     <mergeCell ref="J3:Z3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="J6:AK7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
